--- a/mmm/src/test/resources/TestData/Book1.xlsx
+++ b/mmm/src/test/resources/TestData/Book1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="4335" windowWidth="19035" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="4335"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t xml:space="preserve">Execute </t>
   </si>
@@ -101,16 +101,12 @@
   </si>
   <si>
     <t>2017-08-02T21:42:53.309</t>
-  </si>
-  <si>
-    <t>Hahahaha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,18 +130,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -179,34 +165,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -223,10 +208,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -261,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -313,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -424,21 +409,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -455,7 +440,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -507,27 +492,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,14 +539,14 @@
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,14 +556,14 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,14 +573,14 @@
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,12 +588,12 @@
         <v>14</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,14 +603,14 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,12 +618,12 @@
         <v>11</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,14 +633,14 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -663,15 +648,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>